--- a/input_data/data_errors_11/proporcionalidades.xlsx
+++ b/input_data/data_errors_11/proporcionalidades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
   <si>
     <t xml:space="preserve">2-2015</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">8-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-2015</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -118,6 +115,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,16 +160,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,291 +302,288 @@
   </sheetPr>
   <dimension ref="A1:BH6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="1" style="1" width="16.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="13" style="2" width="16.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="60" min="49" style="1" width="16.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="61" style="2" width="16.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="16.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="4" t="s">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3" t="s">
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="4" t="s">
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="4" t="s">
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3" t="s">
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3" t="s">
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3" t="s">
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -613,7 +604,7 @@
         <v>0.442</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.558</v>
@@ -697,7 +688,7 @@
         <v>0.442</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>0.558</v>
@@ -795,7 +786,7 @@
         <v>0.442</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.558</v>
@@ -879,7 +870,7 @@
         <v>0.442</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0.558</v>
@@ -977,7 +968,7 @@
         <v>0.442</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0.558</v>
@@ -1061,7 +1052,7 @@
         <v>0.442</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.558</v>
@@ -1159,7 +1150,7 @@
         <v>0.442</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.558</v>
@@ -1243,7 +1234,7 @@
         <v>0.442</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0.558</v>

--- a/input_data/data_errors_11/proporcionalidades.xlsx
+++ b/input_data/data_errors_11/proporcionalidades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t xml:space="preserve">2-2015</t>
   </si>
@@ -34,40 +34,49 @@
     <t xml:space="preserve">2-2030-P</t>
   </si>
   <si>
-    <t xml:space="preserve">2-2050-P</t>
+    <t xml:space="preserve">99-2050-P</t>
   </si>
   <si>
     <t xml:space="preserve">3-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">4-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2030-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2050-O</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2030-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2050-O</t>
   </si>
   <si>
     <t xml:space="preserve">5-2030-P</t>
   </si>
   <si>
+    <t xml:space="preserve">4-2030-P</t>
+  </si>
+  <si>
     <t xml:space="preserve">5-2050-P</t>
   </si>
   <si>
-    <t xml:space="preserve">6-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
+    <t xml:space="preserve">6-2030-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88-2050-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-2030-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-2050-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-2030-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-2030-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-2050-O</t>
   </si>
   <si>
     <t xml:space="preserve">DI</t>
@@ -300,15 +309,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="16.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16350" min="1" style="1" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16351" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,81 +358,30 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="3" t="s">
-        <v>6</v>
+      <c r="Y1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -431,10 +390,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
@@ -443,10 +402,10 @@
         <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>10</v>
@@ -455,136 +414,37 @@
         <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +464,7 @@
         <v>0.442</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0.558</v>
@@ -661,111 +521,12 @@
         <v>0.164</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0.506</v>
+        <v>0.442</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>0.232</v>
+        <v>0.347</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AN3" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AP3" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AV3" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AW3" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AX3" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AY3" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="AZ3" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BA3" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BB3" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BC3" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BD3" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BE3" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BF3" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BG3" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BH3" s="1" t="n">
         <v>0.211</v>
       </c>
     </row>
@@ -786,7 +547,7 @@
         <v>0.442</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0.558</v>
@@ -843,111 +604,12 @@
         <v>0.164</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>0.506</v>
+        <v>0.442</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>0.232</v>
+        <v>0.347</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AN4" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AP4" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AV4" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AW4" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AX4" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AY4" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="AZ4" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BA4" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BB4" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BC4" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BD4" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BE4" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BF4" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BG4" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BH4" s="1" t="n">
         <v>0.211</v>
       </c>
     </row>
@@ -968,7 +630,7 @@
         <v>0.442</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0.558</v>
@@ -1025,111 +687,12 @@
         <v>0.164</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>0.506</v>
+        <v>0.442</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.232</v>
+        <v>0.347</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI5" s="1" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AL5" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AM5" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AN5" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AP5" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AQ5" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AR5" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AS5" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AT5" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AU5" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AV5" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AW5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AX5" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AY5" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="AZ5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BA5" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BB5" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BC5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BD5" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BE5" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BF5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BG5" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BH5" s="1" t="n">
         <v>0.211</v>
       </c>
     </row>
@@ -1150,7 +713,7 @@
         <v>0.442</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0.558</v>
@@ -1207,111 +770,12 @@
         <v>0.164</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>0.506</v>
+        <v>0.442</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.232</v>
+        <v>0.347</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>0.558</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AN6" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AO6" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AP6" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AQ6" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AR6" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AS6" s="1" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="AT6" s="1" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="AU6" s="1" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="AV6" s="1" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AW6" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="AX6" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AY6" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="AZ6" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BA6" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BB6" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BC6" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BD6" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BE6" s="1" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="BF6" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="BG6" s="1" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="BH6" s="1" t="n">
         <v>0.211</v>
       </c>
     </row>
